--- a/data/suicidio/provincia_Sexo_20162020.xlsx
+++ b/data/suicidio/provincia_Sexo_20162020.xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1600" uniqueCount="61">
   <si>
-    <t xml:space="preserve">Provincia de defunci�n</t>
+    <t xml:space="preserve">Provincia de defunción</t>
   </si>
   <si>
     <t xml:space="preserve">Causa de muerte (lista reducida)</t>
@@ -31,7 +31,7 @@
     <t xml:space="preserve">Sexo</t>
   </si>
   <si>
-    <t xml:space="preserve">a�o</t>
+    <t xml:space="preserve">año</t>
   </si>
   <si>
     <t xml:space="preserve">Total</t>
@@ -52,10 +52,10 @@
     <t xml:space="preserve">Alicante/Alacant</t>
   </si>
   <si>
-    <t xml:space="preserve">Almer�a</t>
+    <t xml:space="preserve">Almería</t>
   </si>
   <si>
-    <t xml:space="preserve">Araba/�lava</t>
+    <t xml:space="preserve">Araba/Álava</t>
   </si>
   <si>
     <t xml:space="preserve">..</t>
@@ -64,7 +64,7 @@
     <t xml:space="preserve">Asturias</t>
   </si>
   <si>
-    <t xml:space="preserve">�vila</t>
+    <t xml:space="preserve">Ávila</t>
   </si>
   <si>
     <t xml:space="preserve">Badajoz</t>
@@ -82,25 +82,25 @@
     <t xml:space="preserve">Burgos</t>
   </si>
   <si>
-    <t xml:space="preserve">C�ceres</t>
+    <t xml:space="preserve">Cáceres</t>
   </si>
   <si>
-    <t xml:space="preserve">C�diz</t>
+    <t xml:space="preserve">Cádiz</t>
   </si>
   <si>
     <t xml:space="preserve">Cantabria</t>
   </si>
   <si>
-    <t xml:space="preserve">Castell�n/Castell�</t>
+    <t xml:space="preserve">Castellón/Castelló</t>
   </si>
   <si>
     <t xml:space="preserve">Ciudad Real</t>
   </si>
   <si>
-    <t xml:space="preserve">C�rdoba</t>
+    <t xml:space="preserve">Córdoba</t>
   </si>
   <si>
-    <t xml:space="preserve">Coru�a, A</t>
+    <t xml:space="preserve">Coruña, A</t>
   </si>
   <si>
     <t xml:space="preserve">Cuenca</t>
@@ -124,10 +124,10 @@
     <t xml:space="preserve">Huesca</t>
   </si>
   <si>
-    <t xml:space="preserve">Ja�n</t>
+    <t xml:space="preserve">Jaén</t>
   </si>
   <si>
-    <t xml:space="preserve">Le�n</t>
+    <t xml:space="preserve">León</t>
   </si>
   <si>
     <t xml:space="preserve">Lleida</t>
@@ -139,7 +139,7 @@
     <t xml:space="preserve">Madrid</t>
   </si>
   <si>
-    <t xml:space="preserve">M�laga</t>
+    <t xml:space="preserve">Málaga</t>
   </si>
   <si>
     <t xml:space="preserve">Murcia</t>
@@ -187,7 +187,7 @@
     <t xml:space="preserve">Toledo</t>
   </si>
   <si>
-    <t xml:space="preserve">Valencia/Val�ncia</t>
+    <t xml:space="preserve">Valencia/València</t>
   </si>
   <si>
     <t xml:space="preserve">Valladolid</t>
@@ -306,7 +306,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.23"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="8.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="5.35"/>
